--- a/biology/Zoologie/Brachistosternus_sciosciae/Brachistosternus_sciosciae.xlsx
+++ b/biology/Zoologie/Brachistosternus_sciosciae/Brachistosternus_sciosciae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachistosternus sciosciae est une espèce de scorpions de la famille des Bothriuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région d'Atacama au Chili[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région d'Atacama au Chili.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 40,51 mm et la femelle paratype 47,26 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 40,51 mm et la femelle paratype 47,26 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cristina Luisa Scioscia[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Cristina Luisa Scioscia.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ojanguren Affilastro, 2002 : Nuevos aportes al conocimiento del género Brachistosternus en Chile, con la descripción de dos nuevas especies (Scorpiones, Bothriuridae). Boletín de la Sociedad de Biología de Concepción (Chile), vol. 73, p. 37-46 (texte intégral).</t>
         </is>
